--- a/pcb/sensorBoard/bom.xlsx
+++ b/pcb/sensorBoard/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawai\OneDrive\projects\mppcSensorInterface\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sawaiz\OneDrive\projects\mppcSensorInterface\pcb\sensorBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>QTY</t>
   </si>
@@ -59,289 +59,259 @@
     <t>U1</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>Boost Inductor</t>
-  </si>
-  <si>
-    <t>Smoothing Inductor</t>
-  </si>
-  <si>
-    <t>Boost Switch</t>
-  </si>
-  <si>
-    <t>Boost Diode</t>
-  </si>
-  <si>
-    <t>Input Decoupling</t>
-  </si>
-  <si>
-    <t>Boost Controller</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>Boost Capacitor</t>
-  </si>
-  <si>
-    <t>FIXED IND 150UH 320MA 2.4 OHM</t>
-  </si>
-  <si>
-    <t>SRN4018-151M</t>
-  </si>
-  <si>
-    <t>SRN4018-151MCT-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145546&amp;uq=635911598142329427</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145512&amp;uq=635911598142319415</t>
-  </si>
-  <si>
-    <t>587-3059-1-ND</t>
-  </si>
-  <si>
-    <t>CBC2518T331K</t>
-  </si>
-  <si>
-    <t>FIXED IND 330UH 90MA 15.99 OHM</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145567&amp;uq=635911598142329427</t>
-  </si>
-  <si>
-    <t>BSS123LCT-ND</t>
-  </si>
-  <si>
-    <t>BSS123L</t>
-  </si>
-  <si>
-    <t>MOSFET N-CH 100V 0.17A SOT-23</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188146539&amp;uq=635911598142339439</t>
-  </si>
-  <si>
-    <t>LL4148FSCT-ND</t>
-  </si>
-  <si>
-    <t>LL4148</t>
-  </si>
-  <si>
-    <t>DIODE GEN PURP 100V 200MA SOD80</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836551&amp;uq=635911598142349451</t>
-  </si>
-  <si>
-    <t>709-1068-1-ND</t>
-  </si>
-  <si>
-    <t>160R18W105KV4E</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 16V X7R 1206</t>
-  </si>
-  <si>
-    <t>IC SUPPLY BIAS APD 12-TQFN</t>
-  </si>
-  <si>
-    <t>MAX1932ETC+T</t>
-  </si>
-  <si>
-    <t>MAX1932ETC+TCT-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145609&amp;uq=635911598142329427</t>
-  </si>
-  <si>
-    <t>SH1</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145484&amp;uq=635911598142319415</t>
-  </si>
-  <si>
-    <t>952-2634-ND</t>
-  </si>
-  <si>
-    <t>S02-30200250</t>
-  </si>
-  <si>
-    <t>RFI SHIELD CAN 30X20X2.5MM</t>
-  </si>
-  <si>
-    <t>EMI Shield</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>Post Filter Capacitor</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836361&amp;uq=635911598142339439</t>
-  </si>
-  <si>
-    <t>478-6226-1-ND</t>
-  </si>
-  <si>
-    <t>12061C105KAT2A</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 100V X7R 1206</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836455&amp;uq=635911598142339439</t>
-  </si>
-  <si>
-    <t>399-6743-1-ND</t>
-  </si>
-  <si>
-    <t>C1206C473KCRACTU</t>
-  </si>
-  <si>
-    <t>CAP CER 0.047UF 500V X7R 1206</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836482&amp;uq=635911598142349451</t>
-  </si>
-  <si>
-    <t>399-4674-1-ND</t>
-  </si>
-  <si>
-    <t>C1206C104KARACTU</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 250V X7R 1206</t>
-  </si>
-  <si>
-    <t>Pre Filter Capacitor</t>
-  </si>
-  <si>
-    <t>Compensation Capacitor</t>
-  </si>
-  <si>
-    <t>CAP CER 0.22UF 16V Y5V 0402</t>
-  </si>
-  <si>
-    <t>CL05F224ZO5NNNC</t>
-  </si>
-  <si>
-    <t>1276-1060-1-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836589&amp;uq=635911598142349451</t>
-  </si>
-  <si>
-    <t>Current Sens Resistor</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837307&amp;uq=635911598142359463</t>
-  </si>
-  <si>
-    <t>YAG1481CT-ND</t>
-  </si>
-  <si>
-    <t>RT0402BRD07806RL</t>
-  </si>
-  <si>
-    <t>RES SMD 806 OHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>RES SMD 100K OHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>YAG1343CT-ND</t>
-  </si>
-  <si>
-    <t>RT0402BRD07100KL</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837329&amp;uq=635911598142359463</t>
-  </si>
-  <si>
-    <t>Adjustment Span Res</t>
-  </si>
-  <si>
-    <t>Minimum Voltage Res</t>
-  </si>
-  <si>
-    <t>Compensation Res</t>
-  </si>
-  <si>
-    <t>DAC Resistor</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837348&amp;uq=635911598142359463</t>
-  </si>
-  <si>
-    <t>YAG1393CT-ND</t>
-  </si>
-  <si>
-    <t>RT0402BRD0724K9L</t>
-  </si>
-  <si>
-    <t>RES SMD 24.9KOHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837408&amp;uq=635911598142369475</t>
-  </si>
-  <si>
-    <t>A102706CT-ND</t>
-  </si>
-  <si>
-    <t>1879208-8</t>
-  </si>
-  <si>
-    <t>RES SMD 20 OHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837419&amp;uq=635911598142369475</t>
-  </si>
-  <si>
-    <t>A102770CT-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 2.37KOHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>7-1879214-8</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Half 8 pin output</t>
+  </si>
+  <si>
+    <t>Decoupling</t>
+  </si>
+  <si>
+    <t>Op-Amp</t>
+  </si>
+  <si>
+    <t>Common Mode Decoupling</t>
+  </si>
+  <si>
+    <t>Power Low-Pass</t>
+  </si>
+  <si>
+    <t>MPPC</t>
+  </si>
+  <si>
+    <t>1.3x1.3mm MPPC</t>
+  </si>
+  <si>
+    <t>Led</t>
+  </si>
+  <si>
+    <t>Op-amp Gain</t>
+  </si>
+  <si>
+    <t>Op-amp Feedback</t>
+  </si>
+  <si>
+    <t>50 ohm Term</t>
+  </si>
+  <si>
+    <t>NTC Therm</t>
+  </si>
+  <si>
+    <t>CONN HEADER 2MM DUAL SMD 8POS</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 25V X6S 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAP CER 10000PF 25V X5R 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAP CER 0.047UF 25V X5R 0201</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>IC AMP/DRIVER DIFF 10-QFN</t>
+  </si>
+  <si>
+    <t>J1,J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES SMD 10 OHM 5% 1/20W 0201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RES SMD 1K OHM 5% 1/20W 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RES SMD 51 OHM 5% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>RES SMD 100 OHM 0.1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 0.1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THERMISTOR NTC 100KOHM 0.5% 0603</t>
+  </si>
+  <si>
+    <t>LED UV/NUV 380NM 200MW FLIPCHIP</t>
+  </si>
+  <si>
+    <t>Decoupling/Low-Pass</t>
+  </si>
+  <si>
+    <t>R5,R6</t>
+  </si>
+  <si>
+    <t>R1,R4</t>
+  </si>
+  <si>
+    <t>C1,C3,C4,C5</t>
+  </si>
+  <si>
+    <t>490-10404-1-ND</t>
+  </si>
+  <si>
+    <t>GRM033C81E104ME14D</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776716&amp;uq=635931346694799446</t>
+  </si>
+  <si>
+    <t>CC0201KRX5R8BB103</t>
+  </si>
+  <si>
+    <t>311-1598-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776703&amp;uq=635931346694799446</t>
+  </si>
+  <si>
+    <t>C0603X5R1E473K030BB</t>
+  </si>
+  <si>
+    <t>445-13679-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776730&amp;uq=635931346694809447</t>
+  </si>
+  <si>
+    <t>CL10A105KP8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1182-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776739&amp;uq=635931346694809447</t>
+  </si>
+  <si>
+    <t>GRM188R61A106ME69D</t>
+  </si>
+  <si>
+    <t>490-10475-1-ND</t>
+  </si>
+  <si>
+    <t>S13360-1375PE</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776695&amp;uq=635931346694799446</t>
+  </si>
+  <si>
+    <t>L1F2-U380100002001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1416-1494-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S6009-02-ND</t>
+  </si>
+  <si>
+    <t>NRPN022MAMS-RC</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191775702&amp;uq=635931346694789445</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777383&amp;uq=635931346694829449</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191775856&amp;uq=635931346694789445</t>
+  </si>
+  <si>
+    <t>LTC6409CUDB#TRMPBF</t>
+  </si>
+  <si>
+    <t>LTC6409CUDB#TRMPBFCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777080&amp;uq=635931346694809447</t>
+  </si>
+  <si>
+    <t>RMCF0201JT10R0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0201JT10R0</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777087&amp;uq=635931346694819448</t>
+  </si>
+  <si>
+    <t>311-1KNCT-ND</t>
+  </si>
+  <si>
+    <t>RC0201JR-071KL</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777165&amp;uq=635931346694829449</t>
+  </si>
+  <si>
+    <t>P100BXCT-ND</t>
+  </si>
+  <si>
+    <t>ERA-1AEB101C</t>
+  </si>
+  <si>
+    <t>RC0201JR-0751RL</t>
+  </si>
+  <si>
+    <t>311-51NCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777089&amp;uq=635931346694819448</t>
+  </si>
+  <si>
+    <t>NCP18WF104D03RB</t>
+  </si>
+  <si>
+    <t>490-11811-1-ND</t>
+  </si>
+  <si>
+    <t>P10KBXCT-ND</t>
+  </si>
+  <si>
+    <t>ERA-1AEB103C</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777258&amp;uq=635931346694829449</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777143&amp;uq=635931346694819448</t>
+  </si>
+  <si>
+    <t>http://www.hamamatsu.com/eu/en/product/new/S13360-1375PE/index.html</t>
   </si>
 </sst>
 </file>
@@ -349,8 +319,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.00000_);_(&quot;$&quot;* \(#,##0.00000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -387,15 +357,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -677,23 +647,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="98.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,119 +697,119 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5">
-        <v>8.9499999999999996E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="H2" s="1">
         <f>G2*F2</f>
-        <v>8.9499999999999996E-2</v>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>0.13</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="H3" s="1">
-        <f>G3*F3</f>
-        <v>0.13</v>
+        <f t="shared" ref="H3:H16" si="0">G3*F3</f>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="4">
+        <v>58</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>0.14000000000000001</v>
+        <v>2.75E-2</v>
       </c>
       <c r="H4" s="1">
-        <f>G4*F4</f>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.75E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>0.157</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H5" s="1">
-        <f>G5*F5</f>
-        <v>0.157</v>
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -847,420 +817,354 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="4">
+        <v>64</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>1.12E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="H6" s="1">
-        <f>G6*F6</f>
-        <v>1.12E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>4.2000000000000003E-2</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1">
-        <f>G7*F7</f>
-        <v>4.2000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>0.24</v>
+        <v>4.242</v>
       </c>
       <c r="H8" s="1">
-        <f>G8*F8</f>
-        <v>0.24</v>
+        <f t="shared" si="0"/>
+        <v>4.242</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
       </c>
       <c r="G9" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.32629999999999998</v>
       </c>
       <c r="H9" s="1">
-        <f>G9*F9</f>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.65259999999999996</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3">
+        <v>90</v>
+      </c>
+      <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>0.1032</v>
+        <v>0.1333</v>
       </c>
       <c r="H10" s="1">
-        <f>G10*F10</f>
-        <v>0.1032</v>
+        <f t="shared" si="0"/>
+        <v>0.1333</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="5">
-        <v>0.12759999999999999</v>
+        <v>0.31269999999999998</v>
       </c>
       <c r="H11" s="1">
-        <f>G11*F11</f>
-        <v>0.12759999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.31269999999999998</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>0.19</v>
+        <v>1.66E-2</v>
       </c>
       <c r="H12" s="1">
-        <f>G12*F12</f>
-        <v>0.19</v>
+        <f t="shared" si="0"/>
+        <v>1.66E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5">
-        <v>0.12759999999999999</v>
+        <v>0.1333</v>
       </c>
       <c r="H13" s="1">
-        <f>G13*F13</f>
-        <v>0.12759999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.2666</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>0.19</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="H14" s="1">
-        <f>G14*F14</f>
-        <v>0.19</v>
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>0.12759999999999999</v>
+        <v>1.66E-2</v>
       </c>
       <c r="H15" s="1">
-        <f>G15*F15</f>
-        <v>0.12759999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.66E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="4">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>3.1919</v>
+        <v>8.8510000000000009</v>
       </c>
       <c r="H16" s="1">
-        <f>G16*F16</f>
-        <v>3.1919</v>
+        <f t="shared" si="0"/>
+        <v>8.8510000000000009</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>7.2827999999999999</v>
-      </c>
-      <c r="H17" s="1">
-        <f>G17*F17</f>
-        <v>7.2827999999999999</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="3"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="3"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="3"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="3"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="3"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="3"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">

--- a/pcb/sensorBoard/bom.xlsx
+++ b/pcb/sensorBoard/bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawai\OneDrive\projects\mppcSensorInterface\pcb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sawaiz\OneDrive\projects\mppcSensorInterface\pcb\sensorBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>QTY</t>
   </si>
@@ -59,289 +59,292 @@
     <t>U1</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>Boost Inductor</t>
-  </si>
-  <si>
-    <t>Smoothing Inductor</t>
-  </si>
-  <si>
-    <t>Boost Switch</t>
-  </si>
-  <si>
-    <t>Boost Diode</t>
-  </si>
-  <si>
-    <t>Input Decoupling</t>
-  </si>
-  <si>
-    <t>Boost Controller</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>Boost Capacitor</t>
-  </si>
-  <si>
-    <t>FIXED IND 150UH 320MA 2.4 OHM</t>
-  </si>
-  <si>
-    <t>SRN4018-151M</t>
-  </si>
-  <si>
-    <t>SRN4018-151MCT-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145546&amp;uq=635911598142329427</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145512&amp;uq=635911598142319415</t>
-  </si>
-  <si>
-    <t>587-3059-1-ND</t>
-  </si>
-  <si>
-    <t>CBC2518T331K</t>
-  </si>
-  <si>
-    <t>FIXED IND 330UH 90MA 15.99 OHM</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145567&amp;uq=635911598142329427</t>
-  </si>
-  <si>
-    <t>BSS123LCT-ND</t>
-  </si>
-  <si>
-    <t>BSS123L</t>
-  </si>
-  <si>
-    <t>MOSFET N-CH 100V 0.17A SOT-23</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188146539&amp;uq=635911598142339439</t>
-  </si>
-  <si>
-    <t>LL4148FSCT-ND</t>
-  </si>
-  <si>
-    <t>LL4148</t>
-  </si>
-  <si>
-    <t>DIODE GEN PURP 100V 200MA SOD80</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836551&amp;uq=635911598142349451</t>
-  </si>
-  <si>
-    <t>709-1068-1-ND</t>
-  </si>
-  <si>
-    <t>160R18W105KV4E</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 16V X7R 1206</t>
-  </si>
-  <si>
-    <t>IC SUPPLY BIAS APD 12-TQFN</t>
-  </si>
-  <si>
-    <t>MAX1932ETC+T</t>
-  </si>
-  <si>
-    <t>MAX1932ETC+TCT-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145609&amp;uq=635911598142329427</t>
-  </si>
-  <si>
-    <t>SH1</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188145484&amp;uq=635911598142319415</t>
-  </si>
-  <si>
-    <t>952-2634-ND</t>
-  </si>
-  <si>
-    <t>S02-30200250</t>
-  </si>
-  <si>
-    <t>RFI SHIELD CAN 30X20X2.5MM</t>
-  </si>
-  <si>
-    <t>EMI Shield</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>Post Filter Capacitor</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836361&amp;uq=635911598142339439</t>
-  </si>
-  <si>
-    <t>478-6226-1-ND</t>
-  </si>
-  <si>
-    <t>12061C105KAT2A</t>
-  </si>
-  <si>
-    <t>CAP CER 1UF 100V X7R 1206</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836455&amp;uq=635911598142339439</t>
-  </si>
-  <si>
-    <t>399-6743-1-ND</t>
-  </si>
-  <si>
-    <t>C1206C473KCRACTU</t>
-  </si>
-  <si>
-    <t>CAP CER 0.047UF 500V X7R 1206</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836482&amp;uq=635911598142349451</t>
-  </si>
-  <si>
-    <t>399-4674-1-ND</t>
-  </si>
-  <si>
-    <t>C1206C104KARACTU</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 250V X7R 1206</t>
-  </si>
-  <si>
-    <t>Pre Filter Capacitor</t>
-  </si>
-  <si>
-    <t>Compensation Capacitor</t>
-  </si>
-  <si>
-    <t>CAP CER 0.22UF 16V Y5V 0402</t>
-  </si>
-  <si>
-    <t>CL05F224ZO5NNNC</t>
-  </si>
-  <si>
-    <t>1276-1060-1-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188836589&amp;uq=635911598142349451</t>
-  </si>
-  <si>
-    <t>Current Sens Resistor</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837307&amp;uq=635911598142359463</t>
-  </si>
-  <si>
-    <t>YAG1481CT-ND</t>
-  </si>
-  <si>
-    <t>RT0402BRD07806RL</t>
-  </si>
-  <si>
-    <t>RES SMD 806 OHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>RES SMD 100K OHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>YAG1343CT-ND</t>
-  </si>
-  <si>
-    <t>RT0402BRD07100KL</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837329&amp;uq=635911598142359463</t>
-  </si>
-  <si>
-    <t>Adjustment Span Res</t>
-  </si>
-  <si>
-    <t>Minimum Voltage Res</t>
-  </si>
-  <si>
-    <t>Compensation Res</t>
-  </si>
-  <si>
-    <t>DAC Resistor</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837348&amp;uq=635911598142359463</t>
-  </si>
-  <si>
-    <t>YAG1393CT-ND</t>
-  </si>
-  <si>
-    <t>RT0402BRD0724K9L</t>
-  </si>
-  <si>
-    <t>RES SMD 24.9KOHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837408&amp;uq=635911598142369475</t>
-  </si>
-  <si>
-    <t>A102706CT-ND</t>
-  </si>
-  <si>
-    <t>1879208-8</t>
-  </si>
-  <si>
-    <t>RES SMD 20 OHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=188837419&amp;uq=635911598142369475</t>
-  </si>
-  <si>
-    <t>A102770CT-ND</t>
-  </si>
-  <si>
-    <t>RES SMD 2.37KOHM 0.1% 1/16W 0402</t>
-  </si>
-  <si>
-    <t>7-1879214-8</t>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Decoupling</t>
+  </si>
+  <si>
+    <t>Op-Amp</t>
+  </si>
+  <si>
+    <t>Common Mode Decoupling</t>
+  </si>
+  <si>
+    <t>Power Low-Pass</t>
+  </si>
+  <si>
+    <t>MPPC</t>
+  </si>
+  <si>
+    <t>1.3x1.3mm MPPC</t>
+  </si>
+  <si>
+    <t>Led</t>
+  </si>
+  <si>
+    <t>Op-amp Gain</t>
+  </si>
+  <si>
+    <t>Op-amp Feedback</t>
+  </si>
+  <si>
+    <t>50 ohm Term</t>
+  </si>
+  <si>
+    <t>NTC Therm</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 25V X6S 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAP CER 10000PF 25V X5R 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAP CER 0.047UF 25V X5R 0201</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>IC AMP/DRIVER DIFF 10-QFN</t>
+  </si>
+  <si>
+    <t>J1,J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES SMD 10 OHM 5% 1/20W 0201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RES SMD 1K OHM 5% 1/20W 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RES SMD 51 OHM 5% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>RES SMD 100 OHM 0.1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 0.1% 1/20W 0201</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> THERMISTOR NTC 100KOHM 0.5% 0603</t>
+  </si>
+  <si>
+    <t>LED UV/NUV 380NM 200MW FLIPCHIP</t>
+  </si>
+  <si>
+    <t>Decoupling/Low-Pass</t>
+  </si>
+  <si>
+    <t>R5,R6</t>
+  </si>
+  <si>
+    <t>R1,R4</t>
+  </si>
+  <si>
+    <t>C1,C3,C4,C5</t>
+  </si>
+  <si>
+    <t>490-10404-1-ND</t>
+  </si>
+  <si>
+    <t>GRM033C81E104ME14D</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776716&amp;uq=635931346694799446</t>
+  </si>
+  <si>
+    <t>CC0201KRX5R8BB103</t>
+  </si>
+  <si>
+    <t>311-1598-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776703&amp;uq=635931346694799446</t>
+  </si>
+  <si>
+    <t>C0603X5R1E473K030BB</t>
+  </si>
+  <si>
+    <t>445-13679-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776730&amp;uq=635931346694809447</t>
+  </si>
+  <si>
+    <t>CL10A105KP8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1182-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776739&amp;uq=635931346694809447</t>
+  </si>
+  <si>
+    <t>GRM188R61A106ME69D</t>
+  </si>
+  <si>
+    <t>490-10475-1-ND</t>
+  </si>
+  <si>
+    <t>S13360-1375PE</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191776695&amp;uq=635931346694799446</t>
+  </si>
+  <si>
+    <t>L1F2-U380100002001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1416-1494-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777383&amp;uq=635931346694829449</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191775856&amp;uq=635931346694789445</t>
+  </si>
+  <si>
+    <t>LTC6409CUDB#TRMPBF</t>
+  </si>
+  <si>
+    <t>LTC6409CUDB#TRMPBFCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777080&amp;uq=635931346694809447</t>
+  </si>
+  <si>
+    <t>RMCF0201JT10R0CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0201JT10R0</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777087&amp;uq=635931346694819448</t>
+  </si>
+  <si>
+    <t>311-1KNCT-ND</t>
+  </si>
+  <si>
+    <t>RC0201JR-071KL</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777165&amp;uq=635931346694829449</t>
+  </si>
+  <si>
+    <t>P100BXCT-ND</t>
+  </si>
+  <si>
+    <t>ERA-1AEB101C</t>
+  </si>
+  <si>
+    <t>RC0201JR-0751RL</t>
+  </si>
+  <si>
+    <t>311-51NCT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777089&amp;uq=635931346694819448</t>
+  </si>
+  <si>
+    <t>NCP18WF104D03RB</t>
+  </si>
+  <si>
+    <t>490-11811-1-ND</t>
+  </si>
+  <si>
+    <t>P10KBXCT-ND</t>
+  </si>
+  <si>
+    <t>ERA-1AEB103C</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777258&amp;uq=635931346694829449</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191777143&amp;uq=635931346694819448</t>
+  </si>
+  <si>
+    <t>http://www.hamamatsu.com/eu/en/product/new/S13360-1375PE/index.html</t>
+  </si>
+  <si>
+    <t>Spring Connector</t>
+  </si>
+  <si>
+    <t>BATTERY CONN 1.2H 1.6MM DR 4CKT</t>
+  </si>
+  <si>
+    <t>WM11203CT-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191781778&amp;uq=635931369481427881</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>J3-F</t>
+  </si>
+  <si>
+    <t>Ouptut Header</t>
+  </si>
+  <si>
+    <t>Output Header Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONN IDC SOCKET 8POS 2MM GOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONN HEADER 2MM DUAL SMD 8POS</t>
+  </si>
+  <si>
+    <t>S6009-04-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191766851&amp;uq=635931369481377876</t>
+  </si>
+  <si>
+    <t>NRPN042MAMS-RC</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/DkSearch/dksus.dll?Detail&amp;itemSeq=191766263&amp;uq=635931369481367875</t>
+  </si>
+  <si>
+    <t>89361-708LF</t>
+  </si>
+  <si>
+    <t>609-3140-ND</t>
   </si>
 </sst>
 </file>
@@ -349,8 +352,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00000_);_(&quot;$&quot;* \(#,##0.00000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -387,15 +390,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -677,23 +683,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="98.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -727,540 +733,528 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5">
-        <v>8.9499999999999996E-2</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="H2" s="1">
         <f>G2*F2</f>
-        <v>8.9499999999999996E-2</v>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>0.13</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="H3" s="1">
-        <f>G3*F3</f>
-        <v>0.13</v>
+        <f t="shared" ref="H3:H18" si="0">G3*F3</f>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>0.14000000000000001</v>
+        <v>2.75E-2</v>
       </c>
       <c r="H4" s="1">
-        <f>G4*F4</f>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>2.75E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="4">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>0.157</v>
+        <v>1.4E-2</v>
       </c>
       <c r="H5" s="1">
-        <f>G5*F5</f>
-        <v>0.157</v>
+        <f t="shared" si="0"/>
+        <v>1.4E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="4">
+        <v>62</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>1.12E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="H6" s="1">
-        <f>G6*F6</f>
-        <v>1.12E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>4.2000000000000003E-2</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1">
-        <f>G7*F7</f>
-        <v>4.2000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3">
+        <v>66</v>
+      </c>
+      <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>0.24</v>
+        <v>4.242</v>
       </c>
       <c r="H8" s="1">
-        <f>G8*F8</f>
-        <v>0.24</v>
+        <f t="shared" si="0"/>
+        <v>4.242</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
+        <v>91</v>
+      </c>
+      <c r="D9" s="2">
+        <v>788640001</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
       </c>
       <c r="G9" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.25469999999999998</v>
       </c>
       <c r="H9" s="1">
-        <f>G9*F9</f>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.50939999999999996</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="3">
+        <v>85</v>
+      </c>
+      <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="5">
-        <v>0.1032</v>
+        <v>0.1333</v>
       </c>
       <c r="H10" s="1">
-        <f>G10*F10</f>
-        <v>0.1032</v>
+        <f t="shared" si="0"/>
+        <v>0.1333</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.31269999999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31269999999999998</v>
+      </c>
+      <c r="I11" t="s">
         <v>87</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.12759999999999999</v>
-      </c>
-      <c r="H11" s="1">
-        <f>G11*F11</f>
-        <v>0.12759999999999999</v>
-      </c>
-      <c r="I11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>0.19</v>
+        <v>1.66E-2</v>
       </c>
       <c r="H12" s="1">
-        <f>G12*F12</f>
-        <v>0.19</v>
+        <f t="shared" si="0"/>
+        <v>1.66E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5">
-        <v>0.12759999999999999</v>
+        <v>0.1333</v>
       </c>
       <c r="H13" s="1">
-        <f>G13*F13</f>
-        <v>0.12759999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.2666</v>
       </c>
       <c r="I13" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>99</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>0.19</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="H14" s="1">
-        <f>G14*F14</f>
-        <v>0.19</v>
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="4">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>0.12759999999999999</v>
+        <v>1.66E-2</v>
       </c>
       <c r="H15" s="1">
-        <f>G15*F15</f>
-        <v>0.12759999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.66E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="4">
+        <v>70</v>
+      </c>
+      <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="5">
-        <v>3.1919</v>
+        <v>8.8510000000000009</v>
       </c>
       <c r="H16" s="1">
-        <f>G16*F16</f>
-        <v>3.1919</v>
+        <f t="shared" si="0"/>
+        <v>8.8510000000000009</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
+        <v>99</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="5">
-        <v>7.2827999999999999</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="H17" s="1">
-        <f>G17*F17</f>
-        <v>7.2827999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.58199999999999996</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="H18" s="1"/>
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" s="3"/>
-      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" s="3"/>
-      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F21" s="3"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="3"/>
-      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
-      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="3"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="3"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="3"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="3"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="3"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">
